--- a/files/output_file_one_sheet_split.xlsx
+++ b/files/output_file_one_sheet_split.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>table_header_descriptor</t>
+          <t>table_header_position</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -508,7 +508,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>"Duxford Range Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the center right position of the page"</t>
+          <t>"Part Number - Can be found on the top right position of the page"</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -527,12 +527,20 @@
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16W</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1600lm</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>"Duxford Range Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the center right position of the page"</t>
+          <t>"Part Number - Can be found on the top right position of the page"</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -564,7 +572,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>"Duxford Range Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the center right position of the page"</t>
+          <t>"Part Number - Can be found on the top right position of the page"</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -588,7 +596,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>"Duxford Range Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the center right position of the page"</t>
+          <t>"Part Number - Can be found on the top right position of the page"</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -620,7 +628,7 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>"Duxford Range Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the center right position of the page"</t>
+          <t>"Part Number - Can be found on the top right position of the page"</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -644,7 +652,7 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>"Duxford Range Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the center right position of the page"</t>
+          <t>"Part Number - Can be found on the top right position of the page"</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -676,7 +684,7 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>"Duxford Range Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the center right position of the page"</t>
+          <t>"Part Number - Can be found on the top right position of the page"</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -700,7 +708,7 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>"Duxford Range Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the center right position of the page"</t>
+          <t>"Part Number - Can be found on the top right position of the page"</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -740,7 +748,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>"Duxford Range Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the center right position of the page"</t>
+          <t>"Part Number - Can be found on the top right position of the page"</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -759,12 +767,20 @@
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16W</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1600lm</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>"Duxford Range Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the center right position of the page"</t>
+          <t>"Part Number - Can be found on the top right position of the page"</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -783,20 +799,12 @@
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>16W</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1600lm</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>"Duxford Range Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the center right position of the page"</t>
+          <t>"Part Number - Can be found on the top right position of the page"</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -815,12 +823,20 @@
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16W</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1600lm</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>"Duxford Range Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the center right position of the page"</t>
+          <t>"Part Number - Can be found on the top right position of the page"</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -860,7 +876,7 @@
       </c>
       <c r="G16" s="1" t="inlineStr">
         <is>
-          <t>table_header_descriptor</t>
+          <t>table_header_position</t>
         </is>
       </c>
       <c r="H16" s="1" t="inlineStr">
@@ -902,7 +918,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>"Duxford Range - Can be found on the right side of the page"</t>
+          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -926,7 +942,7 @@
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>"Duxford Range - Can be found on the right side of the page"</t>
+          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -958,7 +974,7 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>"Duxford Range - Can be found on the right side of the page"</t>
+          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -982,7 +998,7 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>"Duxford Range - Can be found on the right side of the page"</t>
+          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1014,7 +1030,7 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>"Duxford Range - Can be found on the right side of the page"</t>
+          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1038,7 +1054,7 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>"Duxford Range - Can be found on the right side of the page"</t>
+          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -1070,7 +1086,7 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>"Duxford Range - Can be found on the right side of the page"</t>
+          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -1094,7 +1110,7 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>"Duxford Range - Can be found on the right side of the page"</t>
+          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -1134,7 +1150,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>"Duxford Range - Can be found on the right side of the page"</t>
+          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -1158,7 +1174,7 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>"Duxford Range - Can be found on the right side of the page"</t>
+          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -1190,7 +1206,7 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>"Duxford Range - Can be found on the right side of the page"</t>
+          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -1214,7 +1230,7 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>"Duxford Range - Can be found on the right side of the page"</t>
+          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H28" t="n">

--- a/files/output_file_one_sheet_split.xlsx
+++ b/files/output_file_one_sheet_split.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AllTablesWithGaps" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="AllTablesWithGaps" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -508,7 +508,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the top right position of the page"</t>
+          <t>"Part Number - Can be found on the right middle position of the page"</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -527,20 +527,12 @@
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>16W</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>1600lm</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the top right position of the page"</t>
+          <t>"Part Number - Can be found on the right middle position of the page"</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -572,7 +564,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the top right position of the page"</t>
+          <t>"Part Number - Can be found on the right middle position of the page"</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -596,7 +588,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the top right position of the page"</t>
+          <t>"Part Number - Can be found on the right middle position of the page"</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -628,7 +620,7 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the top right position of the page"</t>
+          <t>"Part Number - Can be found on the right middle position of the page"</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -652,7 +644,7 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the top right position of the page"</t>
+          <t>"Part Number - Can be found on the right middle position of the page"</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -684,7 +676,7 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the top right position of the page"</t>
+          <t>"Part Number - Can be found on the right middle position of the page"</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -708,7 +700,7 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the top right position of the page"</t>
+          <t>"Part Number - Can be found on the right middle position of the page"</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -748,7 +740,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the top right position of the page"</t>
+          <t>"Part Number - Can be found on the right middle position of the page"</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -767,20 +759,12 @@
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>16W</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1600lm</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the top right position of the page"</t>
+          <t>"Part Number - Can be found on the right middle position of the page"</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -799,12 +783,20 @@
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16W</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1600lm</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the top right position of the page"</t>
+          <t>"Part Number - Can be found on the right middle position of the page"</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -823,20 +815,12 @@
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>16W</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1600lm</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the top right position of the page"</t>
+          <t>"Part Number - Can be found on the right middle position of the page"</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -918,7 +902,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the right side of the page"</t>
+          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the top right position of the page"</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -942,7 +926,7 @@
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the right side of the page"</t>
+          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the top right position of the page"</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -974,7 +958,7 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the right side of the page"</t>
+          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the top right position of the page"</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -998,7 +982,7 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the right side of the page"</t>
+          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the top right position of the page"</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1030,7 +1014,7 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the right side of the page"</t>
+          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the top right position of the page"</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1054,7 +1038,7 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the right side of the page"</t>
+          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the top right position of the page"</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -1086,7 +1070,7 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the right side of the page"</t>
+          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the top right position of the page"</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -1110,7 +1094,7 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the right side of the page"</t>
+          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the top right position of the page"</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -1150,7 +1134,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the right side of the page"</t>
+          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the top right position of the page"</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -1174,7 +1158,7 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the right side of the page"</t>
+          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the top right position of the page"</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -1206,7 +1190,7 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the right side of the page"</t>
+          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the top right position of the page"</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -1230,7 +1214,7 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the right side of the page"</t>
+          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the top right position of the page"</t>
         </is>
       </c>
       <c r="H28" t="n">
